--- a/Master-functional-testcases/admin/Admin_MasterTC.xlsx
+++ b/Master-functional-testcases/admin/Admin_MasterTC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jane.rose\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anushree.N\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="1.0.11" sheetId="14" r:id="rId1"/>
@@ -23,8 +23,10 @@
     <sheet name="1.2_Update_BulkUploadAPI" sheetId="8" r:id="rId9"/>
     <sheet name="1.2_Delete_BulkUploadAPI" sheetId="9" r:id="rId10"/>
     <sheet name="1.2_Get_BulkUploadAPI" sheetId="10" r:id="rId11"/>
+    <sheet name="ADMIN" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">ADMIN!$A$1:$I$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Admin_API!$A$1:$G$1618</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13406" uniqueCount="4021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13667" uniqueCount="4111">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -13087,6 +13089,276 @@
   </si>
   <si>
     <t>To check the Functionality of machine Specification Update API</t>
+  </si>
+  <si>
+    <t>Reviewed</t>
+  </si>
+  <si>
+    <t>Admin_MasterData_1</t>
+  </si>
+  <si>
+    <t>Master Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that user_id should be the same as the one in the identity system. </t>
+  </si>
+  <si>
+    <t>User_id should be the same as the one in the identity system</t>
+  </si>
+  <si>
+    <t>Admin_MasterData_2</t>
+  </si>
+  <si>
+    <t>To verify that centre id is validated to ensure that the centre is valid and active.</t>
+  </si>
+  <si>
+    <t>Centre id should be validated to ensure that the centre is valid and active.</t>
+  </si>
+  <si>
+    <t>Admin_MasterData_3</t>
+  </si>
+  <si>
+    <t>To verify that zone_id is validated to ensure that the centre is valid and active.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zone_id should be validated to ensure that the centre is valid and active.</t>
+  </si>
+  <si>
+    <t>Admin_MasterData_4</t>
+  </si>
+  <si>
+    <t>To verify that user and registration center are in the same Zone</t>
+  </si>
+  <si>
+    <t>User and registration center should be  in the same Zone</t>
+  </si>
+  <si>
+    <t>Admin_MasterData_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that User _id is mapped to the registration center of same Zone </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User _id should be  mapped to the registration center of same Zone</t>
+  </si>
+  <si>
+    <t>Admin_MasterData_6</t>
+  </si>
+  <si>
+    <t>To verify that User_id is not mapped to the registration center of different zone.</t>
+  </si>
+  <si>
+    <t>User_id should  not be  mapped to the registration center of different zone.</t>
+  </si>
+  <si>
+    <t>Admin_MasterData_7</t>
+  </si>
+  <si>
+    <t>To verify that user_id is mapped to different registration center of same zone</t>
+  </si>
+  <si>
+    <t>User_id should be  mapped to different registration center of same zone</t>
+  </si>
+  <si>
+    <t>Admin_MasterData_8</t>
+  </si>
+  <si>
+    <t>To  verify that mapped User_id is not mapped with any other registration center of same zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mapped User_id should not be mapped with any other registration center of same zone</t>
+  </si>
+  <si>
+    <t>Admin_MasterData_9</t>
+  </si>
+  <si>
+    <t>To  verify that mapped User_id is not mapped with any other registration center of different  zone</t>
+  </si>
+  <si>
+    <t>Mapped User_id should  not be mapped with any other registration center of different  zone</t>
+  </si>
+  <si>
+    <t>Admin_MasterData_10</t>
+  </si>
+  <si>
+    <t>To verify that User_id is mapped to zone_id  of same zone</t>
+  </si>
+  <si>
+    <t>User_id should be  mapped to zone_id  of same zone</t>
+  </si>
+  <si>
+    <t>Admin_MasterData_11</t>
+  </si>
+  <si>
+    <t>To  verify that on deleting the mapping details should delete from history table</t>
+  </si>
+  <si>
+    <t>On deleting the mapping details should delete details from  history table</t>
+  </si>
+  <si>
+    <t>Admin_MasterData_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that active user_id is mapped to active center_id of same zone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active user_id should be mapped to active center_id of same zone </t>
+  </si>
+  <si>
+    <t>Admin_MasterData_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that active user_id is not mapped to inactive center_id of same zone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active user_id should not be  mapped to inactive center_id of same zone </t>
+  </si>
+  <si>
+    <t>Admin_MasterData_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that inactive user_id is not mapped to active center_id of same zone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inactive user_id should not be  mapped to active center_id of same zone </t>
+  </si>
+  <si>
+    <t>Admin_MasterData_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that inactive user_id is not mapped to inactive center_id of same zone </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inactive user_id should  not be mapped to inactive center_id of same zone (inactive user shouldn't be log-in)</t>
+  </si>
+  <si>
+    <t>Admin_MasterData_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that active user_id is not mapped to active center_id of different  zone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active user_id should not be mapped to active center_id of different  zone </t>
+  </si>
+  <si>
+    <t>Admin_MasterData_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that active user_id is mapped to active zone_id of same zone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active user_id should be mapped to active zone_id of same zone </t>
+  </si>
+  <si>
+    <t>Admin_MasterData_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that active user_id is not mapped to inactive zone_id of same zone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active user_id should not be  mapped to inactive zone_id of same zone </t>
+  </si>
+  <si>
+    <t>Admin_MasterData_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that inactive user_id is not mapped to active zone_id of same zone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inactive user_id should not be mapped to active zone_id of same zone </t>
+  </si>
+  <si>
+    <t>Admin_MasterData_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that inactive user_id is not mapped to inactive zone_id of same zone </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inactive user_id should not be mapped to inactive zone_id of same zone </t>
+  </si>
+  <si>
+    <t>Admin_MasterData_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that active user_id is not mapped to active zone_id of different  zone </t>
+  </si>
+  <si>
+    <t>Active user_id should not be mapped to active zone_id of different  zone</t>
+  </si>
+  <si>
+    <t>Admin_MasterData_22</t>
+  </si>
+  <si>
+    <t>To verify that User_id is not  mapped to zone_id  of different  zone</t>
+  </si>
+  <si>
+    <t>User_id should not be  mapped to zone_id  of different  zone</t>
+  </si>
+  <si>
+    <t>Admin_MasterData_23</t>
+  </si>
+  <si>
+    <t>To verify that mapping details are updated in history table</t>
+  </si>
+  <si>
+    <t>Mapping details should be updated in history table</t>
+  </si>
+  <si>
+    <t>StoryID</t>
+  </si>
+  <si>
+    <t>MOSIP-11025</t>
+  </si>
+  <si>
+    <t>Admin_Bulkupload_01</t>
+  </si>
+  <si>
+    <t>Bulkupload</t>
+  </si>
+  <si>
+    <t>Verify that bulk upload UI does not contain history tables in dropdown.</t>
+  </si>
+  <si>
+    <t>Bulkupload UI should not have the history tables in the Dropdown.</t>
+  </si>
+  <si>
+    <t>Admin_Bulkupload_02</t>
+  </si>
+  <si>
+    <t>Verify that insertion via bulkupload reflects the  respective history table.</t>
+  </si>
+  <si>
+    <t>On Inserting records should also insert in history table.</t>
+  </si>
+  <si>
+    <t>Admin_Bulkupload_03</t>
+  </si>
+  <si>
+    <t>Verify that updating record in main table reflects the respective history table</t>
+  </si>
+  <si>
+    <t>On updating  records should also update in history table.</t>
+  </si>
+  <si>
+    <t>Admin_Bulkupload_04</t>
+  </si>
+  <si>
+    <t>Verify that on deleting the record in main table should delete record in history table</t>
+  </si>
+  <si>
+    <t>On deleting records should also delete in history table.</t>
+  </si>
+  <si>
+    <t>Admin_Bulkupload_05</t>
+  </si>
+  <si>
+    <t>Verify that on insert , update , delete for multiple records ,history table should save the copy according to the operation preformed..</t>
+  </si>
+  <si>
+    <t>All changes made should be updated in history table</t>
+  </si>
+  <si>
+    <t>MOSIP-11647</t>
   </si>
 </sst>
 </file>
@@ -13305,7 +13577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -13399,6 +13671,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13681,8 +13957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15640,6 +15916,882 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" customWidth="1"/>
+    <col min="6" max="6" width="48.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>4021</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="65.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>4022</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4024</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4025</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="58.5" customHeight="1">
+      <c r="A3" t="s">
+        <v>4026</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4027</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4028</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A4" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>4030</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>4031</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.5" customHeight="1">
+      <c r="A5" t="s">
+        <v>4032</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4033</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4034</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="54.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>4035</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>4036</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>4037</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="44.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>4039</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>4040</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="81.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>4042</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>4043</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="52.5" customHeight="1">
+      <c r="A9" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4045</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>4046</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="57" customHeight="1">
+      <c r="A10" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4048</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4049</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="65.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>4050</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>4051</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>4052</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="51" customHeight="1">
+      <c r="A12" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>4054</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>4055</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="39" customHeight="1">
+      <c r="A13" t="s">
+        <v>4056</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4057</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4058</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="61.5" customHeight="1">
+      <c r="A14" t="s">
+        <v>4059</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>4060</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>4061</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="57" customHeight="1">
+      <c r="A15" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>4063</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>4064</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="61.5" customHeight="1">
+      <c r="A16" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>4066</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>4067</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="65.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>4069</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>4070</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="39.75" customHeight="1">
+      <c r="A18" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>4072</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>4073</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="60" customHeight="1">
+      <c r="A19" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>4075</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>4076</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="55.5" customHeight="1">
+      <c r="A20" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>4078</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4079</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="57" customHeight="1">
+      <c r="A21" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>4081</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>4082</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="49.5" customHeight="1">
+      <c r="A22" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>4084</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>4085</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="49.5" customHeight="1">
+      <c r="A23" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>4087</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>4088</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="53.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>4090</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>4091</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="48" customHeight="1">
+      <c r="A25" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4095</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>4096</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>4097</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="72" customHeight="1">
+      <c r="A26" t="s">
+        <v>4098</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4095</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>4099</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>4100</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="63" customHeight="1">
+      <c r="A27" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4095</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4102</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>4103</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="71.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4095</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>4105</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>4106</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="73.5" customHeight="1">
+      <c r="A29" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4095</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>4108</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>4109</v>
+      </c>
+      <c r="G29" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D29">
+      <formula1>"Acceptance, Functional, Smoke, Security, Performance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H29">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B29">
+      <formula1>"Admin, Credential Services, IDA, Partner Mgmt, Pre Registration, Registration Client, Registration Processor, Resident Services"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
